--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -61,6 +61,12 @@
     <t>01-02-00</t>
   </si>
   <si>
+    <t>01-02-01</t>
+  </si>
+  <si>
+    <t>01-02-02</t>
+  </si>
+  <si>
     <t>02-00-00</t>
   </si>
   <si>
@@ -76,9 +82,15 @@
     <t>02-02-01</t>
   </si>
   <si>
+    <t>02-02-02</t>
+  </si>
+  <si>
     <t>02-03-00</t>
   </si>
   <si>
+    <t>02-04-00</t>
+  </si>
+  <si>
     <t>03-00-00</t>
   </si>
   <si>
@@ -88,6 +100,27 @@
     <t>05-00-00</t>
   </si>
   <si>
+    <t>06-00-00</t>
+  </si>
+  <si>
+    <t>07-00-00</t>
+  </si>
+  <si>
+    <t>08-00-00</t>
+  </si>
+  <si>
+    <t>09-00-00</t>
+  </si>
+  <si>
+    <t>13-00-00</t>
+  </si>
+  <si>
+    <t>14-00-00</t>
+  </si>
+  <si>
+    <t>15-00-00</t>
+  </si>
+  <si>
     <t>인력소요</t>
   </si>
   <si>
@@ -106,10 +139,16 @@
     <t>중장기 전략과 비교</t>
   </si>
   <si>
+    <t>실 코디에게 확인</t>
+  </si>
+  <si>
+    <t>팀 코디 확인</t>
+  </si>
+  <si>
     <t>교육 전략 수립</t>
   </si>
   <si>
-    <t>인터뷰</t>
+    <t>인터뷰 기획</t>
   </si>
   <si>
     <t>인원 선정 완료</t>
@@ -121,21 +160,51 @@
     <t>과거 자료 검토</t>
   </si>
   <si>
+    <t>팀장 보고</t>
+  </si>
+  <si>
     <t>중간보고</t>
   </si>
   <si>
+    <t>팀 의견 종합</t>
+  </si>
+  <si>
     <t>교육 예산 관리</t>
   </si>
   <si>
-    <t>핵심인재 추천</t>
+    <t>실별 핵심인재 추천</t>
   </si>
   <si>
     <t>팀빌딩 워크숍</t>
   </si>
   <si>
+    <t>경영층 특강 참석자 선정</t>
+  </si>
+  <si>
+    <t>센터 주간이슈 논의회</t>
+  </si>
+  <si>
+    <t>경영층 보고</t>
+  </si>
+  <si>
+    <t>회의록 작성</t>
+  </si>
+  <si>
+    <t>dddddddddd</t>
+  </si>
+  <si>
+    <t>eeeeeeeeee</t>
+  </si>
+  <si>
+    <t>adfe</t>
+  </si>
+  <si>
     <t>인사팀</t>
   </si>
   <si>
+    <t>운영팀</t>
+  </si>
+  <si>
     <t>차체실</t>
   </si>
   <si>
@@ -145,18 +214,33 @@
     <t>외장실</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>교육팀</t>
   </si>
   <si>
     <t>내장실</t>
   </si>
   <si>
+    <t>외장실 전팀</t>
+  </si>
+  <si>
+    <t>전실</t>
+  </si>
+  <si>
     <t>기획팀</t>
   </si>
   <si>
     <t>홍길동 책임</t>
   </si>
   <si>
+    <t>박대기</t>
+  </si>
+  <si>
+    <t>실코디</t>
+  </si>
+  <si>
     <t>김문석</t>
   </si>
   <si>
@@ -187,16 +271,31 @@
     <t>3/10</t>
   </si>
   <si>
+    <t>YY-MM-DD</t>
+  </si>
+  <si>
+    <t>22-11-26</t>
+  </si>
+  <si>
     <t>10:30</t>
   </si>
   <si>
     <t>10시</t>
   </si>
   <si>
+    <t>HH:MM</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
+    <t>12시</t>
+  </si>
+  <si>
     <t>ASAP</t>
+  </si>
+  <si>
+    <t>ㅇㅇㅇ</t>
   </si>
   <si>
     <t>팀장 지시</t>
@@ -557,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,25 +696,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -626,16 +725,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -646,19 +754,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -669,19 +783,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -692,19 +812,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -715,16 +841,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -735,28 +870,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,19 +884,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,22 +898,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -807,16 +927,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -827,19 +956,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -850,13 +985,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,19 +1014,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -884,19 +1043,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -904,27 +1072,334 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -112,15 +112,6 @@
     <t>09-00-00</t>
   </si>
   <si>
-    <t>13-00-00</t>
-  </si>
-  <si>
-    <t>14-00-00</t>
-  </si>
-  <si>
-    <t>15-00-00</t>
-  </si>
-  <si>
     <t>인력소요</t>
   </si>
   <si>
@@ -190,15 +181,6 @@
     <t>회의록 작성</t>
   </si>
   <si>
-    <t>dddddddddd</t>
-  </si>
-  <si>
-    <t>eeeeeeeeee</t>
-  </si>
-  <si>
-    <t>adfe</t>
-  </si>
-  <si>
     <t>인사팀</t>
   </si>
   <si>
@@ -293,9 +275,6 @@
   </si>
   <si>
     <t>ASAP</t>
-  </si>
-  <si>
-    <t>ㅇㅇㅇ</t>
   </si>
   <si>
     <t>팀장 지시</t>
@@ -656,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,25 +675,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -725,25 +704,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -754,25 +733,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -783,25 +762,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -812,25 +791,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -841,25 +820,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -870,10 +849,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -884,10 +863,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -898,25 +877,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -927,25 +906,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -956,25 +935,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -985,25 +964,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1014,25 +993,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1043,25 +1022,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1072,25 +1051,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1101,13 +1080,13 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1118,25 +1097,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1147,25 +1126,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1176,25 +1155,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
         <v>87</v>
-      </c>
-      <c r="H20" t="s">
-        <v>94</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1205,25 +1184,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1234,25 +1213,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1263,25 +1242,25 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1292,114 +1271,27 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -97,19 +97,46 @@
     <t>04-00-00</t>
   </si>
   <si>
-    <t>05-00-00</t>
-  </si>
-  <si>
     <t>06-00-00</t>
   </si>
   <si>
     <t>07-00-00</t>
   </si>
   <si>
+    <t>07-01-00</t>
+  </si>
+  <si>
+    <t>07-01-01</t>
+  </si>
+  <si>
     <t>08-00-00</t>
   </si>
   <si>
-    <t>09-00-00</t>
+    <t>08-01-00</t>
+  </si>
+  <si>
+    <t>08-02-00</t>
+  </si>
+  <si>
+    <t>08-03-00</t>
+  </si>
+  <si>
+    <t>08-04-00</t>
+  </si>
+  <si>
+    <t>08-05-00</t>
+  </si>
+  <si>
+    <t>08-06-00</t>
+  </si>
+  <si>
+    <t>08-07-00</t>
+  </si>
+  <si>
+    <t>08-08-00</t>
+  </si>
+  <si>
+    <t>08-09-00</t>
   </si>
   <si>
     <t>인력소요</t>
@@ -166,19 +193,22 @@
     <t>실별 핵심인재 추천</t>
   </si>
   <si>
-    <t>팀빌딩 워크숍</t>
-  </si>
-  <si>
     <t>경영층 특강 참석자 선정</t>
   </si>
   <si>
     <t>센터 주간이슈 논의회</t>
   </si>
   <si>
+    <t>메일 송부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>경영층 보고</t>
   </si>
   <si>
-    <t>회의록 작성</t>
+    <t>완료</t>
   </si>
   <si>
     <t>인사팀</t>
@@ -196,9 +226,6 @@
     <t>외장실</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>교육팀</t>
   </si>
   <si>
@@ -211,7 +238,31 @@
     <t>전실</t>
   </si>
   <si>
-    <t>기획팀</t>
+    <t>차체설계1팀</t>
+  </si>
+  <si>
+    <t>차체설계2팀</t>
+  </si>
+  <si>
+    <t>차체설계3팀</t>
+  </si>
+  <si>
+    <t>외장설계1팀</t>
+  </si>
+  <si>
+    <t>dkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>daaleiw12222222222222222222222</t>
+  </si>
+  <si>
+    <t>aksdakalskdfasf</t>
+  </si>
+  <si>
+    <t>1212123124k</t>
+  </si>
+  <si>
+    <t>외장설계2팀</t>
   </si>
   <si>
     <t>홍길동 책임</t>
@@ -223,15 +274,9 @@
     <t>실코디</t>
   </si>
   <si>
-    <t>김문석</t>
-  </si>
-  <si>
     <t>진행</t>
   </si>
   <si>
-    <t>완료</t>
-  </si>
-  <si>
     <t>검토</t>
   </si>
   <si>
@@ -275,9 +320,6 @@
   </si>
   <si>
     <t>ASAP</t>
-  </si>
-  <si>
-    <t>팀장 지시</t>
   </si>
 </sst>
 </file>
@@ -635,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,25 +717,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -704,25 +746,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -733,25 +775,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -762,25 +804,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -791,25 +833,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -820,25 +862,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -849,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -863,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -877,25 +919,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -906,25 +948,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -935,25 +977,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -964,25 +1006,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -993,25 +1035,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1022,25 +1064,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1051,25 +1093,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1080,13 +1122,13 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1097,25 +1139,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1126,25 +1168,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1155,25 +1197,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1184,25 +1226,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1213,28 +1255,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1242,28 +1284,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1271,28 +1313,289 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -97,18 +97,69 @@
     <t>04-00-00</t>
   </si>
   <si>
+    <t>04-01-00</t>
+  </si>
+  <si>
+    <t>04-01-01</t>
+  </si>
+  <si>
+    <t>04-01-02</t>
+  </si>
+  <si>
+    <t>04-01-03</t>
+  </si>
+  <si>
+    <t>04-02-00</t>
+  </si>
+  <si>
+    <t>04-02-01</t>
+  </si>
+  <si>
+    <t>04-02-02</t>
+  </si>
+  <si>
+    <t>04-02-03</t>
+  </si>
+  <si>
+    <t>04-02-04</t>
+  </si>
+  <si>
+    <t>04-02-05</t>
+  </si>
+  <si>
+    <t>04-02-06</t>
+  </si>
+  <si>
+    <t>04-02-07</t>
+  </si>
+  <si>
+    <t>04-02-08</t>
+  </si>
+  <si>
+    <t>04-02-09</t>
+  </si>
+  <si>
+    <t>04-03-00</t>
+  </si>
+  <si>
     <t>06-00-00</t>
   </si>
   <si>
+    <t>06-01-00</t>
+  </si>
+  <si>
+    <t>06-02-00</t>
+  </si>
+  <si>
+    <t>06-03-00</t>
+  </si>
+  <si>
+    <t>06-04-00</t>
+  </si>
+  <si>
     <t>07-00-00</t>
   </si>
   <si>
-    <t>07-01-00</t>
-  </si>
-  <si>
-    <t>07-01-01</t>
-  </si>
-  <si>
     <t>08-00-00</t>
   </si>
   <si>
@@ -193,18 +244,24 @@
     <t>실별 핵심인재 추천</t>
   </si>
   <si>
+    <t>실 추천</t>
+  </si>
+  <si>
+    <t>팀장 추천중</t>
+  </si>
+  <si>
+    <t>검토중</t>
+  </si>
+  <si>
     <t>경영층 특강 참석자 선정</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>센터 주간이슈 논의회</t>
   </si>
   <si>
-    <t>메일 송부</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>경영층 보고</t>
   </si>
   <si>
@@ -250,21 +307,27 @@
     <t>외장설계1팀</t>
   </si>
   <si>
+    <t>설계팀</t>
+  </si>
+  <si>
+    <t>daaleiw12222222222222222222222</t>
+  </si>
+  <si>
+    <t>aksdakalskdfasf</t>
+  </si>
+  <si>
+    <t>1212123124k</t>
+  </si>
+  <si>
+    <t>외장설계2팀</t>
+  </si>
+  <si>
+    <t>선행실</t>
+  </si>
+  <si>
     <t>dkkkkkkkkkkkkkkkkk</t>
   </si>
   <si>
-    <t>daaleiw12222222222222222222222</t>
-  </si>
-  <si>
-    <t>aksdakalskdfasf</t>
-  </si>
-  <si>
-    <t>1212123124k</t>
-  </si>
-  <si>
-    <t>외장설계2팀</t>
-  </si>
-  <si>
     <t>홍길동 책임</t>
   </si>
   <si>
@@ -274,6 +337,27 @@
     <t>실코디</t>
   </si>
   <si>
+    <t>차차차</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>박현대</t>
+  </si>
+  <si>
+    <t>최기아</t>
+  </si>
+  <si>
+    <t>외외외</t>
+  </si>
+  <si>
+    <t>팀 코디</t>
+  </si>
+  <si>
+    <t>클클클</t>
+  </si>
+  <si>
     <t>진행</t>
   </si>
   <si>
@@ -304,6 +388,12 @@
     <t>22-11-26</t>
   </si>
   <si>
+    <t>10/22</t>
+  </si>
+  <si>
+    <t>11라ㅏ아</t>
+  </si>
+  <si>
     <t>10:30</t>
   </si>
   <si>
@@ -319,7 +409,16 @@
     <t>12시</t>
   </si>
   <si>
+    <t>리이니</t>
+  </si>
+  <si>
     <t>ASAP</t>
+  </si>
+  <si>
+    <t>추천서 작성중</t>
+  </si>
+  <si>
+    <t>ㄹㅇ라</t>
   </si>
 </sst>
 </file>
@@ -677,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,25 +816,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -746,25 +845,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -775,25 +874,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -804,25 +903,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -833,25 +932,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -862,25 +961,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -891,10 +990,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -905,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -919,25 +1018,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -948,25 +1047,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -977,25 +1076,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1006,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1035,25 +1134,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1064,25 +1163,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1093,25 +1192,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1122,13 +1221,13 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1139,25 +1238,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1168,25 +1267,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1197,28 +1296,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1226,28 +1325,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1255,25 +1354,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1284,28 +1383,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1313,28 +1412,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1342,25 +1441,25 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1371,25 +1470,25 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1400,25 +1499,25 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1429,25 +1528,25 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1458,25 +1557,25 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1487,25 +1586,25 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1516,25 +1615,25 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1545,25 +1644,25 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1574,27 +1673,520 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33">
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50">
         <v>2</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="134">
   <si>
     <t>No</t>
   </si>
@@ -94,54 +94,69 @@
     <t>03-00-00</t>
   </si>
   <si>
+    <t>03-01-00</t>
+  </si>
+  <si>
+    <t>03-01-01</t>
+  </si>
+  <si>
+    <t>03-01-02</t>
+  </si>
+  <si>
+    <t>03-01-03</t>
+  </si>
+  <si>
+    <t>03-02-00</t>
+  </si>
+  <si>
+    <t>03-02-01</t>
+  </si>
+  <si>
+    <t>03-02-02</t>
+  </si>
+  <si>
+    <t>03-02-03</t>
+  </si>
+  <si>
+    <t>03-02-04</t>
+  </si>
+  <si>
+    <t>03-02-05</t>
+  </si>
+  <si>
+    <t>03-02-06</t>
+  </si>
+  <si>
+    <t>03-02-07</t>
+  </si>
+  <si>
+    <t>03-02-08</t>
+  </si>
+  <si>
+    <t>03-02-09</t>
+  </si>
+  <si>
+    <t>03-03-00</t>
+  </si>
+  <si>
     <t>04-00-00</t>
   </si>
   <si>
     <t>04-01-00</t>
   </si>
   <si>
-    <t>04-01-01</t>
-  </si>
-  <si>
-    <t>04-01-02</t>
-  </si>
-  <si>
-    <t>04-01-03</t>
-  </si>
-  <si>
     <t>04-02-00</t>
   </si>
   <si>
-    <t>04-02-01</t>
-  </si>
-  <si>
-    <t>04-02-02</t>
-  </si>
-  <si>
-    <t>04-02-03</t>
-  </si>
-  <si>
-    <t>04-02-04</t>
-  </si>
-  <si>
-    <t>04-02-05</t>
-  </si>
-  <si>
-    <t>04-02-06</t>
-  </si>
-  <si>
-    <t>04-02-07</t>
-  </si>
-  <si>
-    <t>04-02-08</t>
-  </si>
-  <si>
-    <t>04-02-09</t>
-  </si>
-  <si>
     <t>04-03-00</t>
   </si>
   <si>
+    <t>04-04-00</t>
+  </si>
+  <si>
+    <t>05-00-00</t>
+  </si>
+  <si>
     <t>06-00-00</t>
   </si>
   <si>
@@ -157,39 +172,24 @@
     <t>06-04-00</t>
   </si>
   <si>
+    <t>06-05-00</t>
+  </si>
+  <si>
+    <t>06-06-00</t>
+  </si>
+  <si>
+    <t>06-07-00</t>
+  </si>
+  <si>
+    <t>06-08-00</t>
+  </si>
+  <si>
+    <t>06-09-00</t>
+  </si>
+  <si>
     <t>07-00-00</t>
   </si>
   <si>
-    <t>08-00-00</t>
-  </si>
-  <si>
-    <t>08-01-00</t>
-  </si>
-  <si>
-    <t>08-02-00</t>
-  </si>
-  <si>
-    <t>08-03-00</t>
-  </si>
-  <si>
-    <t>08-04-00</t>
-  </si>
-  <si>
-    <t>08-05-00</t>
-  </si>
-  <si>
-    <t>08-06-00</t>
-  </si>
-  <si>
-    <t>08-07-00</t>
-  </si>
-  <si>
-    <t>08-08-00</t>
-  </si>
-  <si>
-    <t>08-09-00</t>
-  </si>
-  <si>
     <t>인력소요</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t>팀 의견 종합</t>
   </si>
   <si>
-    <t>교육 예산 관리</t>
-  </si>
-  <si>
     <t>실별 핵심인재 추천</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
     <t>완료</t>
   </si>
   <si>
+    <t>자동화 프로그램 개발</t>
+  </si>
+  <si>
     <t>인사팀</t>
   </si>
   <si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>HH:MM</t>
-  </si>
-  <si>
-    <t>13:00</t>
   </si>
   <si>
     <t>12시</t>
@@ -834,7 +831,7 @@
         <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -863,7 +860,7 @@
         <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -880,10 +877,10 @@
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
@@ -892,7 +889,7 @@
         <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -909,7 +906,7 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -921,7 +918,7 @@
         <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -938,7 +935,7 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>115</v>
@@ -950,7 +947,7 @@
         <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -964,10 +961,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>116</v>
@@ -979,7 +976,7 @@
         <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1036,7 +1033,7 @@
         <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1050,10 +1047,10 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>114</v>
@@ -1065,7 +1062,7 @@
         <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1082,7 +1079,7 @@
         <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>115</v>
@@ -1094,7 +1091,7 @@
         <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1108,13 +1105,13 @@
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>119</v>
@@ -1123,7 +1120,7 @@
         <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1140,7 +1137,7 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>114</v>
@@ -1152,7 +1149,7 @@
         <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1166,10 +1163,10 @@
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>114</v>
@@ -1181,7 +1178,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1201,16 +1198,16 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1241,22 +1238,22 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
         <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
         <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1270,25 +1267,25 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1299,22 +1296,22 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1325,13 +1322,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -1343,7 +1340,7 @@
         <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1354,13 +1351,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>114</v>
@@ -1372,7 +1369,7 @@
         <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1383,25 +1380,25 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1412,25 +1409,25 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1441,10 +1438,10 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>112</v>
@@ -1456,10 +1453,10 @@
         <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1470,10 +1467,10 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>112</v>
@@ -1485,10 +1482,10 @@
         <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1499,10 +1496,10 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>112</v>
@@ -1514,10 +1511,10 @@
         <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1528,10 +1525,10 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>112</v>
@@ -1543,10 +1540,10 @@
         <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1557,10 +1554,10 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1572,10 +1569,10 @@
         <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1586,10 +1583,10 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1601,10 +1598,10 @@
         <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1615,10 +1612,10 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
         <v>112</v>
@@ -1630,10 +1627,10 @@
         <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1644,10 +1641,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
@@ -1659,10 +1656,10 @@
         <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1673,25 +1670,25 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1702,28 +1699,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1734,25 +1731,25 @@
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1760,25 +1757,25 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
         <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1789,25 +1786,25 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1818,25 +1815,25 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
         <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -1850,25 +1847,25 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1879,22 +1876,22 @@
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1908,25 +1905,25 @@
         <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
         <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1934,25 +1931,25 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
         <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -1963,25 +1960,25 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
         <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -1992,25 +1989,25 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
         <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -2021,25 +2018,25 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
         <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -2050,25 +2047,25 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
         <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -2079,25 +2076,25 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
         <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -2108,25 +2105,25 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -2137,25 +2134,25 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
         <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -2166,28 +2163,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
         <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
